--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Ptn-Plxnb2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H2">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J2">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N2">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O2">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P2">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q2">
-        <v>2.824176356351778</v>
+        <v>0.112357288</v>
       </c>
       <c r="R2">
-        <v>25.417587207166</v>
+        <v>1.011215592</v>
       </c>
       <c r="S2">
-        <v>0.00520446287560329</v>
+        <v>0.0002070013882634978</v>
       </c>
       <c r="T2">
-        <v>0.00520446287560329</v>
+        <v>0.0002070013882634978</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H3">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J3">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P3">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q3">
-        <v>6.018122709575112</v>
+        <v>1.318374069333333</v>
       </c>
       <c r="R3">
-        <v>54.16310438617601</v>
+        <v>11.865366624</v>
       </c>
       <c r="S3">
-        <v>0.01109034715638963</v>
+        <v>0.002428905747552371</v>
       </c>
       <c r="T3">
-        <v>0.01109034715638963</v>
+        <v>0.002428905747552371</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3206776666666667</v>
+        <v>0.07024999999999999</v>
       </c>
       <c r="H4">
-        <v>0.962033</v>
+        <v>0.21075</v>
       </c>
       <c r="I4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="J4">
-        <v>0.03001977461414601</v>
+        <v>0.005236595731231519</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N4">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P4">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q4">
-        <v>7.447784985917334</v>
+        <v>1.411615255166666</v>
       </c>
       <c r="R4">
-        <v>67.03006487325601</v>
+        <v>12.7045372965</v>
       </c>
       <c r="S4">
-        <v>0.0137249645821531</v>
+        <v>0.00260068859541565</v>
       </c>
       <c r="T4">
-        <v>0.0137249645821531</v>
+        <v>0.002600688595415651</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>17.256823</v>
       </c>
       <c r="I5">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J5">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N5">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O5">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P5">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q5">
-        <v>50.65970866108288</v>
+        <v>9.200141550538666</v>
       </c>
       <c r="R5">
-        <v>455.937377949746</v>
+        <v>82.801273954848</v>
       </c>
       <c r="S5">
-        <v>0.09335697907905131</v>
+        <v>0.01694987576757988</v>
       </c>
       <c r="T5">
-        <v>0.09335697907905134</v>
+        <v>0.01694987576757988</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>17.256823</v>
       </c>
       <c r="I6">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J6">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P6">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q6">
         <v>107.9523034983396</v>
@@ -818,10 +818,10 @@
         <v>971.5707314850562</v>
       </c>
       <c r="S6">
-        <v>0.1989372068176134</v>
+        <v>0.1988858674694849</v>
       </c>
       <c r="T6">
-        <v>0.1989372068176134</v>
+        <v>0.1988858674694849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>17.256823</v>
       </c>
       <c r="I7">
-        <v>0.5384908178993973</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="J7">
-        <v>0.5384908178993975</v>
+        <v>0.4287876899474159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N7">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P7">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q7">
-        <v>133.5973997191707</v>
+        <v>115.5871630012384</v>
       </c>
       <c r="R7">
-        <v>1202.376597472536</v>
+        <v>1040.284467011146</v>
       </c>
       <c r="S7">
-        <v>0.2461966320027327</v>
+        <v>0.2129519467103511</v>
       </c>
       <c r="T7">
-        <v>0.2461966320027327</v>
+        <v>0.2129519467103511</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H8">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J8">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.806900666666666</v>
+        <v>1.599392</v>
       </c>
       <c r="N8">
-        <v>26.420702</v>
+        <v>4.798176</v>
       </c>
       <c r="O8">
-        <v>0.1733678197953833</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="P8">
-        <v>0.1733678197953834</v>
+        <v>0.03952976301548796</v>
       </c>
       <c r="Q8">
-        <v>40.59331551627488</v>
+        <v>12.14367111742933</v>
       </c>
       <c r="R8">
-        <v>365.339839646474</v>
+        <v>109.293040056864</v>
       </c>
       <c r="S8">
-        <v>0.07480637784072873</v>
+        <v>0.02237288585964458</v>
       </c>
       <c r="T8">
-        <v>0.07480637784072874</v>
+        <v>0.02237288585964458</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H9">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J9">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>56.30067200000001</v>
       </c>
       <c r="O9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="P9">
-        <v>0.3694347242421866</v>
+        <v>0.4638329693976876</v>
       </c>
       <c r="Q9">
-        <v>86.50152226365157</v>
+        <v>142.4909891713565</v>
       </c>
       <c r="R9">
-        <v>778.5137003728642</v>
+        <v>1282.418902542208</v>
       </c>
       <c r="S9">
-        <v>0.1594071702681835</v>
+        <v>0.2625181961806503</v>
       </c>
       <c r="T9">
-        <v>0.1594071702681835</v>
+        <v>0.2625181961806503</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.609262333333334</v>
+        <v>7.592679666666666</v>
       </c>
       <c r="H10">
-        <v>13.827787</v>
+        <v>22.778039</v>
       </c>
       <c r="I10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213526</v>
       </c>
       <c r="J10">
-        <v>0.4314894074864565</v>
+        <v>0.5659757143213525</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.225144</v>
+        <v>20.09416733333333</v>
       </c>
       <c r="N10">
-        <v>69.675432</v>
+        <v>60.28250199999999</v>
       </c>
       <c r="O10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868244</v>
       </c>
       <c r="P10">
-        <v>0.4571974559624301</v>
+        <v>0.4966372675868245</v>
       </c>
       <c r="Q10">
-        <v>107.0507814254427</v>
+        <v>152.5685757303975</v>
       </c>
       <c r="R10">
-        <v>963.4570328289841</v>
+        <v>1373.117181573578</v>
       </c>
       <c r="S10">
-        <v>0.1972758593775443</v>
+        <v>0.2810846322810577</v>
       </c>
       <c r="T10">
-        <v>0.1972758593775443</v>
+        <v>0.2810846322810577</v>
       </c>
     </row>
   </sheetData>
